--- a/data/trans_camb/P10_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,92</t>
+          <t>-2,77; 7,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 6,84</t>
+          <t>-4,3; 7,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 5,15</t>
+          <t>-1,96; 5,09</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,63</t>
+          <t>-2,78; 7,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 7,62</t>
+          <t>-4,54; 7,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,66</t>
+          <t>-2,08; 5,62</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-1,21</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 9,4</t>
+          <t>-11,64; 8,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 3,63</t>
+          <t>-6,96; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 4,25</t>
+          <t>-7,91; 4,69</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-1,31%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 10,85</t>
+          <t>-12,5; 9,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 3,92</t>
+          <t>-7,38; 4,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 4,74</t>
+          <t>-8,38; 5,04</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 6,01</t>
+          <t>-11,9; 5,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 6,19</t>
+          <t>-2,42; 5,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 3,69</t>
+          <t>-5,57; 3,51</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>-0,51%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 6,88</t>
+          <t>-12,96; 5,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,85</t>
+          <t>-2,53; 6,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 4,09</t>
+          <t>-6,05; 3,9</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 5,4</t>
+          <t>-7,53; 5,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,36</t>
+          <t>-3,18; 6,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,37</t>
+          <t>-3,84; 4,26</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,62%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 6,31</t>
+          <t>-8,26; 5,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,28</t>
+          <t>-3,54; 6,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,02</t>
+          <t>-4,25; 4,87</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,98</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 10,16</t>
+          <t>-7,51; 10,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 10,96</t>
+          <t>-4,22; 9,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,76</t>
+          <t>-3,7; 7,45</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 13,61</t>
+          <t>-8,68; 13,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 14,29</t>
+          <t>-4,85; 12,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 10,05</t>
+          <t>-4,37; 9,81</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>6,9</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 17,87</t>
+          <t>-3,52; 18,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 13,81</t>
+          <t>-1,85; 15,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 12,31</t>
+          <t>0,3; 14,67</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>13,11%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 31,25</t>
+          <t>-5,52; 32,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 32,71</t>
+          <t>-3,93; 37,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 24,54</t>
+          <t>0,54; 29,69</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,33</t>
+          <t>-2,78; 4,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,92</t>
+          <t>-0,95; 5,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,87</t>
+          <t>-0,71; 3,7</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,23</t>
+          <t>-3,26; 5,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,13</t>
+          <t>-1,13; 6,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,74</t>
+          <t>-0,85; 4,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.973163035648884</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.486344628262548</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.706273654540524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 7,02</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 7,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 5,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.253924030486425</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.89782415051798</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.466705602866631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.270500866697111</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.185235014982191</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.596570208876185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 7,76</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 7,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 5,62</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.02081845808332278</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01597497098594377</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01816046507114365</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.02226191345697059</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.04062118333873825</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.01550161013627784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,64; 8,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 4,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 4,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.08035382356581013</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.07987344759012086</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.0618644268838816</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,01%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,63%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,31%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.3863849921963203</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.514215221422577</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.9259203358278678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,5; 9,49</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,38; 4,68</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; 5,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.13945470141562</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.882744500336349</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.190258104418835</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.277553736904581</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.327320360876306</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.978729109590625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,9; 5,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 5,49</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,57; 3,51</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.00419902759621308</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01628048793179448</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01001076477535831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1075777808946015</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.07289553331590289</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.07593695668116825</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 5,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 6,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 3,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1048702702178549</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.04787357132309054</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.05436562436425634</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.612436995801637</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.503128630074679</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.5423220898990944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,53; 5,09</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 6,11</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 4,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.59936833840217</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.796338002543664</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.745862055628457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.074426640472783</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.486017067319781</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.450692947961004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 5,94</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 6,96</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 4,87</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.02905101616984238</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01619560348039504</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.005934301696531376</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1278823641078637</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.02935387463868654</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06237674512201558</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; 10,34</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 9,49</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 7,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.05873162462610768</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.06081402081561366</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.03814477451007607</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.3938842579342405</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.911479554414053</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7891682583340609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 13,68</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 12,42</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 9,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.522126238533473</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.706783219109808</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.415575147900069</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.962079666577587</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.385878370142962</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.508270621225853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 18,23</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 15,83</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 14,67</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.00449504894018379</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.02143269534967226</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.008922864069496793</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>11,89%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>13,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.08312818460877243</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.03024093369840397</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.03832926058822537</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 32,36</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 37,06</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 29,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.05858385834064408</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.07273495742173706</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.05245585584767162</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0.582764748141551</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>3.449494527351971</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2.019660152574154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 4,3</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 5,09</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 3,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-7.854756446811491</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-3.441023580888699</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-3.582080138218591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>9.993905305280496</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>10.00011378319084</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7.472299692969588</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 5,13</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 6,36</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 4,56</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.007219242920547667</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.04332535490192802</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.0251902505640231</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.09441505701219009</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.04134869555231095</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.04377402983327063</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.1317091121232346</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1320346635314846</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.09715181585569305</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>6.775516587220654</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>5.707302729815749</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>6.214361293575665</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-4.826212619312688</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-2.970546744564385</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-0.2791679952774603</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>17.18963988460569</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>15.7362303920395</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>14.6662889741135</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.1109277631098401</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.1232597581867368</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.1180838644437016</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.07458167661405764</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.06016096798504873</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.004162844674081374</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.3046967420686831</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.3614218659940003</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.300952381351525</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.8060517971628878</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>2.402880936737495</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>1.622918046334776</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-2.823372407718692</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-0.9228289103753207</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-0.670063885258223</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.29751892194545</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>5.060797018765976</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>3.860984776107319</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.009524984461757681</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.02969572061897726</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.01961751343142023</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.03319970846843997</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.01118458902689104</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.00794542795764239</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.05200341626228526</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.06349438159897244</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.04738449333492912</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
